--- a/AfDD_2021_Annex_Table_Sources.xlsx
+++ b/AfDD_2021_Annex_Table_Sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Sources.xlsx
+++ b/AfDD_2021_Annex_Table_Sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>List of sources</t>
   </si>
@@ -126,7 +126,7 @@
     <t>OECD Development Assessment Committee (DAC)</t>
   </si>
   <si>
-    <t>Updated 28/10/2020</t>
+    <t>Updated 21/01/2021</t>
   </si>
   <si>
     <t>https://stats-1.oecd.org/Index.aspx?DataSetCode=TABLE2A</t>
@@ -138,7 +138,7 @@
     <t>OECD Development Centre</t>
   </si>
   <si>
-    <t>December 2018</t>
+    <t>December, 2019</t>
   </si>
   <si>
     <t>https://www.genderindex.org/data/</t>
@@ -210,9 +210,6 @@
     <t>Wittgenstein Centre for Demography and Global Human Capital</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
@@ -237,7 +234,7 @@
     <t>World Development Indicators</t>
   </si>
   <si>
-    <t>Updated 16/10/2020</t>
+    <t>Updated 16/12/2020</t>
   </si>
   <si>
     <t>https://data.worldbank.org/products/wdi</t>
@@ -261,7 +258,7 @@
     <t>https://population.un.org/wpp/Download/Standard/Population/</t>
   </si>
   <si>
-    <t>World Urbanization Prospects: the 2018 revision, UN</t>
+    <t>World Urbanization Prospects: the 2019 revision, UN</t>
   </si>
   <si>
     <t>https://population.un.org/wup/</t>
@@ -1079,100 +1076,100 @@
         <v>62</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">

--- a/AfDD_2021_Annex_Table_Sources.xlsx
+++ b/AfDD_2021_Annex_Table_Sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Sources.xlsx
+++ b/AfDD_2021_Annex_Table_Sources.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Markley_S\BACKUP\Statistical Annex (Final written files are in S)\Output tables\"/>
@@ -805,6 +805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -818,7 +819,7 @@
     <col min="5" max="5" width="66.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>

--- a/AfDD_2021_Annex_Table_Sources.xlsx
+++ b/AfDD_2021_Annex_Table_Sources.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Markley_S\BACKUP\Statistical Annex (Final written files are in S)\Output tables\"/>
@@ -805,7 +805,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>

--- a/AfDD_2021_Annex_Table_Sources.xlsx
+++ b/AfDD_2021_Annex_Table_Sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Annex_Table_Sources.xlsx
+++ b/AfDD_2021_Annex_Table_Sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
